--- a/Strategy Analysis/AIRLINK.xlsx
+++ b/Strategy Analysis/AIRLINK.xlsx
@@ -37733,7 +37733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38007,7 +38007,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>45061</v>
+        <v>45057</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -38015,16 +38015,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>949316</v>
+        <v>949807</v>
       </c>
       <c r="E10" t="n">
-        <v>19.35</v>
+        <v>19.34</v>
       </c>
       <c r="F10" t="n">
-        <v>12.67999999597669</v>
+        <v>9.899999998509884</v>
       </c>
       <c r="G10" t="n">
-        <v>949316</v>
+        <v>949807</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -38043,19 +38043,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>949316</v>
+        <v>949807</v>
       </c>
       <c r="E11" t="n">
         <v>24.42</v>
       </c>
       <c r="F11" t="n">
-        <v>23182309.4</v>
+        <v>23194296.84</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>4813032.120000001</v>
+        <v>4825019.560000002</v>
       </c>
     </row>
     <row r="12">
@@ -38071,16 +38071,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>883135</v>
+        <v>883592</v>
       </c>
       <c r="E12" t="n">
         <v>26.25</v>
       </c>
       <c r="F12" t="n">
-        <v>15.64999999850988</v>
+        <v>6.839999999850988</v>
       </c>
       <c r="G12" t="n">
-        <v>883135</v>
+        <v>883592</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>883135</v>
+        <v>883592</v>
       </c>
       <c r="E13" t="n">
         <v>23.3</v>
       </c>
       <c r="F13" t="n">
-        <v>20577061.15</v>
+        <v>20587700.44</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-2605248.25</v>
+        <v>-2606596.399999999</v>
       </c>
     </row>
     <row r="14">
@@ -38127,16 +38127,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>871171</v>
+        <v>871621</v>
       </c>
       <c r="E14" t="n">
         <v>23.62</v>
       </c>
       <c r="F14" t="n">
-        <v>2.129999998956919</v>
+        <v>12.42000000178814</v>
       </c>
       <c r="G14" t="n">
-        <v>871171</v>
+        <v>871621</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -38155,19 +38155,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>871171</v>
+        <v>871621</v>
       </c>
       <c r="E15" t="n">
         <v>28.96</v>
       </c>
       <c r="F15" t="n">
-        <v>25229114.29</v>
+        <v>25242156.58</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>4652053.140000001</v>
+        <v>4654456.140000001</v>
       </c>
     </row>
     <row r="16">
@@ -38183,16 +38183,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>849751</v>
+        <v>850190</v>
       </c>
       <c r="E16" t="n">
         <v>29.69</v>
       </c>
       <c r="F16" t="n">
-        <v>7.099999997764826</v>
+        <v>15.48000000044703</v>
       </c>
       <c r="G16" t="n">
-        <v>849751</v>
+        <v>850190</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -38211,19 +38211,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>849751</v>
+        <v>850190</v>
       </c>
       <c r="E17" t="n">
         <v>37.29</v>
       </c>
       <c r="F17" t="n">
-        <v>31687221.89</v>
+        <v>31703600.58</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6458107.599999998</v>
+        <v>6461443.999999996</v>
       </c>
     </row>
     <row r="18">
@@ -38231,7 +38231,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>45226</v>
+        <v>45233</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -38239,16 +38239,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>875095</v>
+        <v>772128</v>
       </c>
       <c r="E18" t="n">
-        <v>36.21</v>
+        <v>41.06</v>
       </c>
       <c r="F18" t="n">
-        <v>31.93999999761581</v>
+        <v>24.89999999478459</v>
       </c>
       <c r="G18" t="n">
-        <v>875095</v>
+        <v>772128</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -38259,7 +38259,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>45238</v>
+        <v>45243</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -38267,19 +38267,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>875095</v>
+        <v>772128</v>
       </c>
       <c r="E19" t="n">
-        <v>43.73</v>
+        <v>49.49</v>
       </c>
       <c r="F19" t="n">
-        <v>38267936.28999999</v>
+        <v>38212639.61999999</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>6580714.399999995</v>
+        <v>6509039.039999995</v>
       </c>
     </row>
     <row r="20">
@@ -38287,7 +38287,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>45240</v>
+        <v>45244</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -38295,16 +38295,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>814038</v>
+        <v>783527</v>
       </c>
       <c r="E20" t="n">
-        <v>47.01</v>
+        <v>48.77</v>
       </c>
       <c r="F20" t="n">
-        <v>9.909999996423721</v>
+        <v>27.82999999076128</v>
       </c>
       <c r="G20" t="n">
-        <v>814038</v>
+        <v>783527</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -38323,19 +38323,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>814038</v>
+        <v>783527</v>
       </c>
       <c r="E21" t="n">
         <v>60.52</v>
       </c>
       <c r="F21" t="n">
-        <v>49265589.67</v>
+        <v>47419081.86999999</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>10997653.38000001</v>
+        <v>9206442.25</v>
       </c>
     </row>
     <row r="22">
@@ -38343,7 +38343,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>45251</v>
+        <v>45252</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -38351,16 +38351,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>865067</v>
+        <v>774568</v>
       </c>
       <c r="E22" t="n">
-        <v>56.95</v>
+        <v>61.22</v>
       </c>
       <c r="F22" t="n">
-        <v>24.01999999582767</v>
+        <v>28.90999998897314</v>
       </c>
       <c r="G22" t="n">
-        <v>865067</v>
+        <v>774568</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -38371,7 +38371,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>45267</v>
+        <v>45280</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -38379,19 +38379,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>865067</v>
+        <v>774568</v>
       </c>
       <c r="E23" t="n">
-        <v>69.03</v>
+        <v>51.49</v>
       </c>
       <c r="F23" t="n">
-        <v>59715599.02999999</v>
+        <v>39882535.22999999</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>10450009.35999999</v>
+        <v>-7536546.640000001</v>
       </c>
     </row>
     <row r="24">
@@ -38399,7 +38399,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>45268</v>
+        <v>45295</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -38407,16 +38407,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>839527</v>
+        <v>619871</v>
       </c>
       <c r="E24" t="n">
-        <v>71.13</v>
+        <v>64.34</v>
       </c>
       <c r="F24" t="n">
-        <v>43.51999999582767</v>
+        <v>35.08999998867512</v>
       </c>
       <c r="G24" t="n">
-        <v>839527</v>
+        <v>619871</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -38427,7 +38427,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>45274</v>
+        <v>45303</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -38435,75 +38435,19 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>839527</v>
+        <v>619871</v>
       </c>
       <c r="E25" t="n">
-        <v>62.78</v>
+        <v>57.84</v>
       </c>
       <c r="F25" t="n">
-        <v>52705548.58</v>
+        <v>35853373.72999999</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-7010050.449999996</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="n">
-        <v>45295</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>819172</v>
-      </c>
-      <c r="E26" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="F26" t="n">
-        <v>22.09999999403954</v>
-      </c>
-      <c r="G26" t="n">
-        <v>819172</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>45303</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>819172</v>
-      </c>
-      <c r="E27" t="n">
-        <v>57.84</v>
-      </c>
-      <c r="F27" t="n">
-        <v>47380930.58</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>-5324618</v>
+        <v>-4029161.5</v>
       </c>
     </row>
   </sheetData>
